--- a/docs/components_list.xlsx
+++ b/docs/components_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Documents\power_on\touch_detect_dev_kit\touch_detect_mechanics\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978FAE0-5127-4403-865A-342DE758AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85834B2E-6644-4E9D-B507-EAD09C3E4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8370" windowWidth="38640" windowHeight="21240" xr2:uid="{AC3CF801-FC4D-4885-825C-F31546072BE4}"/>
+    <workbookView xWindow="28680" yWindow="-8370" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{AC3CF801-FC4D-4885-825C-F31546072BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="TouchDetect dev kit V1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>WM2804-ND</t>
+  </si>
+  <si>
+    <t>Amphenol connector 6PIN Male</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>66226-006LF</t>
+  </si>
+  <si>
+    <t>609-2180-ND</t>
+  </si>
+  <si>
+    <t>Amphenol connector 6PIN Female</t>
+  </si>
+  <si>
+    <t>Digi-key</t>
+  </si>
+  <si>
+    <t>609-2162-ND</t>
+  </si>
+  <si>
+    <t>65801-006LF</t>
   </si>
 </sst>
 </file>
@@ -520,13 +544,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430FFB29-5F88-42C8-B963-5DA0585CA6E9}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -607,7 +631,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -702,9 +726,28 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
@@ -726,6 +769,7 @@
     <hyperlink ref="E7" r:id="rId1" xr:uid="{6E0ECA2A-2014-4874-8E6D-A6325679955A}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{8DE2B5D9-63F8-4D60-94FE-FF01159F54DC}"/>
     <hyperlink ref="E3:E6" r:id="rId3" display="Digikey" xr:uid="{3D323848-F843-442A-8F7E-E32AF79C4A3B}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{1C675C89-2C79-429E-9CD2-73D8B20D35C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -733,15 +777,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C11B823-1653-4340-86FF-8F036418B1B6}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -820,7 +864,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -912,6 +956,30 @@
       </c>
       <c r="G7">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -919,6 +987,7 @@
     <hyperlink ref="E7" r:id="rId1" xr:uid="{9524750D-93E2-4BD0-BD2B-461E6AAFC522}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{FFAF0D19-DF37-426A-ACB1-CD1D6D2B070A}"/>
     <hyperlink ref="E3:E6" r:id="rId3" display="Digi-Key" xr:uid="{D48DAA7F-E8C4-41E5-A5C1-D47FC06F88D4}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{D46E7373-244A-48A5-92AF-AEEE1916397E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1120,18 +1189,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1154,14 +1223,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94FC2FCD-B24F-497C-9B8D-F86DF55130D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4831E27-9A64-4768-9C47-D107AF11838F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1176,4 +1237,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94FC2FCD-B24F-497C-9B8D-F86DF55130D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>